--- a/docs/test scenarios/make_transfer.xlsx
+++ b/docs/test scenarios/make_transfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\MakeATransfer\docs\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4330AA82-866E-477C-96F9-96F4BEDF3649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE41147-7C80-4A66-8B59-363E1430380B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
   </bookViews>
@@ -33,9 +33,167 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>Opis</t>
+  </si>
+  <si>
+    <t>Czynności przygotowawcze</t>
+  </si>
+  <si>
+    <t>Czynności końcowe</t>
+  </si>
+  <si>
+    <t>#1.1.1</t>
+  </si>
+  <si>
+    <t>Id sc.test.</t>
+  </si>
+  <si>
+    <t>Id przy.test.</t>
+  </si>
+  <si>
+    <t>Przypadek testowy</t>
+  </si>
+  <si>
+    <t>Opis przypadku</t>
+  </si>
+  <si>
+    <t>Krok testu</t>
+  </si>
+  <si>
+    <t>Opis kroku</t>
+  </si>
+  <si>
+    <t>Oczekiwany rezultat</t>
+  </si>
+  <si>
+    <t>Aktualny rezultat</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Komentarz</t>
+  </si>
+  <si>
+    <t>Wpisanie poprawnych danych</t>
+  </si>
+  <si>
+    <t>Warunek wstępny</t>
+  </si>
+  <si>
+    <t>Krok 1</t>
+  </si>
+  <si>
+    <t>Pozytywny</t>
+  </si>
+  <si>
+    <t>Krok 2</t>
+  </si>
+  <si>
+    <t>Dane bez problemu będzie można wpisać</t>
+  </si>
+  <si>
+    <t>Dane zostały poprawnie wprowadzone</t>
+  </si>
+  <si>
+    <t>Krok 3</t>
+  </si>
+  <si>
+    <t>#1.1.1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja </t>
+  </si>
+  <si>
+    <t>Użytkownik rejestruje się do strony "Make a transfer"</t>
+  </si>
+  <si>
+    <t>1.Sprawdzić czy strona jest przygotowana do testów            2.Sprawdzić czy istnieje zakładka do logowania</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza poprawne dane wejściowe</t>
+  </si>
+  <si>
+    <t>Zostaliśmy przekierowani do formularza</t>
+  </si>
+  <si>
+    <t>Wejście do zakładki Register poprzez stronę główną</t>
+  </si>
+  <si>
+    <t>Zostaniemy przekierowni do formularza rejestracji</t>
+  </si>
+  <si>
+    <t>Zatwierdzenie formularza poprzeez wciscniecie przycisku Register</t>
+  </si>
+  <si>
+    <t>Formularz się powiedzie a nastepnie zostatmiemy poproszenie o zweryfikownie rejestracji</t>
+  </si>
+  <si>
+    <t>Zostaliśmy przeniesieni do strony gdzie musismy potwierdzić naszą rejestrację</t>
+  </si>
+  <si>
+    <t>Krok 4</t>
+  </si>
+  <si>
+    <t>Potwierdzamy rejestrację poprzez wciśniecie przycisku "Click here to confirm your account"</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani o stworzeniu konta poprzez zweryfikownanego email</t>
+  </si>
+  <si>
+    <t>Zostaliśmy poinformowani o poprawnym zweryfikowniu emaila</t>
+  </si>
+  <si>
+    <t>#1.1.1B</t>
+  </si>
+  <si>
+    <t>Wpisanie nieprawidłowego adresu email</t>
+  </si>
+  <si>
+    <t>Użytkownik musi podać prawidłowe parametry konta</t>
+  </si>
+  <si>
+    <t>Sprawdzić czy istnieje zakładka do rejestracji</t>
+  </si>
+  <si>
+    <t>Sprawdzić czy istnieje zakładka do rejestarcji</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres bez znaku "@", resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>Pola z danymi zostały wypełnione</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani o złym adresie email a rejstracja niepowiedzie się</t>
+  </si>
+  <si>
+    <t>Wprowadzenie przykładowych poprawych danych wejsciowych do pól tekstowych (Email: test_user@gmail.com,         Password: Test1234!@#)</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres bez domeny (np: test_user@.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>Pod polem tekstowym email wyskoczyła informacjo o złym adresie email</t>
+  </si>
+  <si>
+    <t>Rejestracja nie została zatwierdzona a nad polami tekstowymi dostaliśmy informacje o złym adresie email</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,16 +202,43 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -61,17 +246,597 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -82,6 +847,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF461E1-0AEE-4AD6-BC03-9AE7EE0DF33F}" name="Tabela1" displayName="Tabela1" ref="A2:E5" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+  <autoFilter ref="A2:E5" xr:uid="{BE7EBAB9-A2E7-4610-A776-05D41C30A963}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{524A7053-3BF0-4395-A67A-2CA801213C69}" name="Id" totalsRowLabel="Suma" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{59DD98BB-5A25-43E6-A2D2-3E317D604549}" name="Nazwa" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{92EFCEEF-CFB4-4923-9F80-CEDB6E01CC48}" name="Opis" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{A974A6B7-4033-4200-A95B-15B78F851B6E}" name="Czynności przygotowawcze" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{0B2B3611-C587-4FA2-9FA4-39C0F0025D0A}" name="Czynności końcowe" totalsRowFunction="count" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A627E-B622-49A0-AC71-5AC0E83CAA05}" name="Tabela3" displayName="Tabela3" ref="A12:J60" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A12:J60" xr:uid="{4420009A-F870-4BB2-9550-83A2DC9E1FD0}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{4C469532-4FF0-4CA3-9E92-A234240A7757}" name="Id sc.test." dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{917FB9B1-A174-4303-877E-91F3AB15A058}" name="Id przy.test." dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{D45ACC9C-F07E-4FD5-A09E-887305E79B0E}" name="Przypadek testowy" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EFC9365F-6AFF-4281-B5B3-8B8DFC4C6947}" name="Opis przypadku" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{752C3B3E-7D86-420F-83F1-DA57E9091E5F}" name="Krok testu" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{711E2E88-A960-4F84-92E2-FD34DE791024}" name="Opis kroku" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5C28BE22-DCD5-46F3-87BD-61A819900B97}" name="Oczekiwany rezultat" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{FFEDE241-C061-4FD8-96AE-A8EDE5444FE3}" name="Aktualny rezultat" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B0E1B49D-7B88-44B2-B03A-FA345032807C}" name="Status" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0053BE8F-F10F-4117-AB75-65D834AA04EB}" name="Komentarz" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +1179,822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB46C1-CAA7-4CE2-B47D-048B77B74AEC}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/test scenarios/make_transfer.xlsx
+++ b/docs/test scenarios/make_transfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\MakeATransfer\docs\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE41147-7C80-4A66-8B59-363E1430380B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64516270-0207-499C-BA61-A5E613FD5BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -180,20 +180,83 @@
     <t>Wprowadzenie przykładowych poprawych danych wejsciowych do pól tekstowych (Email: test_user@gmail.com,         Password: Test1234!@#)</t>
   </si>
   <si>
-    <t>W polu tekstowym email wpisać pzykładowy adres bez domeny (np: test_user@.com), resztę pól wypełnić poprwnymi danymi</t>
-  </si>
-  <si>
     <t>Pod polem tekstowym email wyskoczyła informacjo o złym adresie email</t>
   </si>
   <si>
     <t>Rejestracja nie została zatwierdzona a nad polami tekstowymi dostaliśmy informacje o złym adresie email</t>
+  </si>
+  <si>
+    <t>Przyjęte dane zostały wprowadzone</t>
+  </si>
+  <si>
+    <t>Rejestracja powiodła się a użytkownik został przekierowany do strony aby zweryfikować konto</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres z błędną domeną (np: test_user3@gmail), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres bez domeny (np: test_user2@.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>#1.1.1C</t>
+  </si>
+  <si>
+    <t>Negatywny</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres z błędną domeną (np: test_user4@gmail.), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>#1.1.1D</t>
+  </si>
+  <si>
+    <t>#1.1.1E</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres z brakiem częsci przed "@" (np: @gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>#1.1.1F</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres ze znakiem specjalnym przed nazwą (np: * test_user4@gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres ze znakiem specjalnym przed nazwą (np: _ test_user4@gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>Przed nazwą emaila nie powinny być dopuszone żadne znaki specjalne a rejestrator nie przyjmuje zadnego oprócz "_"</t>
+  </si>
+  <si>
+    <t>#1.1.1H</t>
+  </si>
+  <si>
+    <t>#1.1.1I</t>
+  </si>
+  <si>
+    <t>#1.1.1J</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres ze znakiem specjalnym przed domeną (np: test_user4@-gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres z liczbą w domenie (np: test_user4@1gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>Przy rejestracji w polu tekstowym email w domenie nie powinny znajdować się liczby</t>
+  </si>
+  <si>
+    <t>Przy rejestracji w polu tekstowym email powinna być dopuszczana prawidłowa konstrukcja domeny</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres z polskim znakiem diakrytycznym (np: test_óser4@gmail.com), resztę pól wypełnić poprwnymi danymi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +274,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +306,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,10 +434,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -423,13 +500,216 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -468,202 +748,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -775,10 +859,21 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -798,25 +893,14 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -850,7 +934,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF461E1-0AEE-4AD6-BC03-9AE7EE0DF33F}" name="Tabela1" displayName="Tabela1" ref="A2:E5" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF461E1-0AEE-4AD6-BC03-9AE7EE0DF33F}" name="Tabela1" displayName="Tabela1" ref="A2:E5" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="A2:E5" xr:uid="{BE7EBAB9-A2E7-4610-A776-05D41C30A963}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{524A7053-3BF0-4395-A67A-2CA801213C69}" name="Id" totalsRowLabel="Suma" dataDxfId="19"/>
@@ -864,19 +948,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A627E-B622-49A0-AC71-5AC0E83CAA05}" name="Tabela3" displayName="Tabela3" ref="A12:J60" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A627E-B622-49A0-AC71-5AC0E83CAA05}" name="Tabela3" displayName="Tabela3" ref="A12:J60" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A12:J60" xr:uid="{4420009A-F870-4BB2-9550-83A2DC9E1FD0}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4C469532-4FF0-4CA3-9E92-A234240A7757}" name="Id sc.test." dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{917FB9B1-A174-4303-877E-91F3AB15A058}" name="Id przy.test." dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D45ACC9C-F07E-4FD5-A09E-887305E79B0E}" name="Przypadek testowy" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{EFC9365F-6AFF-4281-B5B3-8B8DFC4C6947}" name="Opis przypadku" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{752C3B3E-7D86-420F-83F1-DA57E9091E5F}" name="Krok testu" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{711E2E88-A960-4F84-92E2-FD34DE791024}" name="Opis kroku" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5C28BE22-DCD5-46F3-87BD-61A819900B97}" name="Oczekiwany rezultat" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{FFEDE241-C061-4FD8-96AE-A8EDE5444FE3}" name="Aktualny rezultat" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{B0E1B49D-7B88-44B2-B03A-FA345032807C}" name="Status" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{0053BE8F-F10F-4117-AB75-65D834AA04EB}" name="Komentarz" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4C469532-4FF0-4CA3-9E92-A234240A7757}" name="Id sc.test." dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{917FB9B1-A174-4303-877E-91F3AB15A058}" name="Id przy.test." dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D45ACC9C-F07E-4FD5-A09E-887305E79B0E}" name="Przypadek testowy" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EFC9365F-6AFF-4281-B5B3-8B8DFC4C6947}" name="Opis przypadku" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{752C3B3E-7D86-420F-83F1-DA57E9091E5F}" name="Krok testu" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{711E2E88-A960-4F84-92E2-FD34DE791024}" name="Opis kroku" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5C28BE22-DCD5-46F3-87BD-61A819900B97}" name="Oczekiwany rezultat" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{FFEDE241-C061-4FD8-96AE-A8EDE5444FE3}" name="Aktualny rezultat" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B0E1B49D-7B88-44B2-B03A-FA345032807C}" name="Status" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0053BE8F-F10F-4117-AB75-65D834AA04EB}" name="Komentarz" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1181,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB46C1-CAA7-4CE2-B47D-048B77B74AEC}">
   <dimension ref="A2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1280,7 @@
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1450,7 +1534,7 @@
         <v>45</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>19</v>
@@ -1472,7 +1556,7 @@
         <v>46</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>19</v>
@@ -1534,13 +1618,13 @@
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>19</v>
@@ -1562,395 +1646,737 @@
         <v>46</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="15"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J31" s="15"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="E32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J33" s="15"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="15"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="E35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J35" s="15"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="E40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="E41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="E49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J56" s="15"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="E57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">

--- a/docs/test scenarios/make_transfer.xlsx
+++ b/docs/test scenarios/make_transfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\MakeATransfer\docs\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64516270-0207-499C-BA61-A5E613FD5BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AA3E60-B0F6-41CA-B637-CF956C7850DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Użytkownik rejestruje się do strony "Make a transfer"</t>
   </si>
   <si>
-    <t>1.Sprawdzić czy strona jest przygotowana do testów            2.Sprawdzić czy istnieje zakładka do logowania</t>
-  </si>
-  <si>
     <t>Uzytkownik wprowadza poprawne dane wejściowe</t>
   </si>
   <si>
@@ -250,13 +247,322 @@
   </si>
   <si>
     <t>W polu tekstowym email wpisać pzykładowy adres z polskim znakiem diakrytycznym (np: test_óser4@gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>#1.1.1K</t>
+  </si>
+  <si>
+    <t>#1.1.1L</t>
+  </si>
+  <si>
+    <t>#1.1.1G</t>
+  </si>
+  <si>
+    <t>Wpisanie nieprawidłowego hasła</t>
+  </si>
+  <si>
+    <t>W polu tekstowym Password i Confirm password wpisujemy hasło które zawiera mniej niż 6 znaków, w pole email wprowadzamy prawidłowe dane wejściowe</t>
+  </si>
+  <si>
+    <t>Pod polem tekstowym hasła wyskoczyła informacjo o nieprawidłowej liczbie znaków</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani o złej długości hasłal a rejstracja niepowiedzie się</t>
+  </si>
+  <si>
+    <t>Rejestracja nie została zatwierdzona a nad polami tekstowymi dostaliśmy informacje o złej ilości znaków</t>
+  </si>
+  <si>
+    <t>#1.1.1M</t>
+  </si>
+  <si>
+    <t>W polu tekstowym Password i Confirm password wpisujemy hasło które zawiera więcej niż 5 znaków, w pole email wprowadzamy prawidłowe dane wejściowe</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani o złej konstrukcji hasła</t>
+  </si>
+  <si>
+    <t>Rejestracja nie została zatwierdzona a nad polami tekstowymi dostaliśmy informacje o złej konstrukcji hasła</t>
+  </si>
+  <si>
+    <t>Informacje które zostały wyświetlone:                Passwords must have at least one non alphanumeric character.
+Passwords must have at least one digit ('0'-'9').
+Passwords must have at least one uppercase ('A'-'Z').</t>
+  </si>
+  <si>
+    <t>#1.1.1N</t>
+  </si>
+  <si>
+    <t>W polu tekstowym Password i Confirm password wpisujemy hasło które zawiera więcej niż 5 znaków oraz zawiera cyfrę, w pole email wprowadzamy prawidłowe dane wejściowe</t>
+  </si>
+  <si>
+    <t>#1.1.1O</t>
+  </si>
+  <si>
+    <t>W polu tekstowym Password i Confirm password wpisujemy hasło które zawiera więcej niż 5 znaków minimum jedną cyfrę oraz znak specjalny, w pole email wprowadzamy prawidłowe dane wejściowe</t>
+  </si>
+  <si>
+    <t>W polu tekstowym Password i Confirm password wpisujemy hasło które zawiera więcej niż 5 znaków minimum jedną cyfrę, znak specjalny oraz wielką literę, w pole email wprowadzamy prawidłowe dane wejściowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejestracja powiedzie się sukcesem </t>
+  </si>
+  <si>
+    <t>Uzytkownik musi podać hasło według zasady silnych haseł oraz powtórzyć je</t>
+  </si>
+  <si>
+    <t>W polu tekstowym Password uzytkownik wpisuje prawidłowe hasło według zadad a w polu Confirm password wpisuje inne hasło , w pole email wprowadzamy prawidłowe dane wejściowe</t>
+  </si>
+  <si>
+    <t>Pod polem tekstowym Confirm password wyskoczyła informacja że hasła różnią się od siebie</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani że hasła różnią się od siebie</t>
+  </si>
+  <si>
+    <t>Rejestracja powiodła się a użytkownik został przekierowany na stronę z weryfikacją</t>
+  </si>
+  <si>
+    <t>Rejestracja nie została zatwierdzona a nad polami tekstowymi dostaliśmy informacje o nieprawidłowości haseł</t>
+  </si>
+  <si>
+    <t>#1.1.1P</t>
+  </si>
+  <si>
+    <t>#1.1.1R</t>
+  </si>
+  <si>
+    <t>Brak danych w polach tekstowych</t>
+  </si>
+  <si>
+    <t>Uzytkownik nie podaje żadnych danych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po wejściu w formularz rejestracji klikamy Register zostawiając puste pola </t>
+  </si>
+  <si>
+    <t>Rejestracja nie powiedzie się a uzytkownk dostanie informację że pola tekstowe są wymagane</t>
+  </si>
+  <si>
+    <t>Rejestarcja nie powiodła się a uzytkownuik dostał informację że pola są wymagane</t>
+  </si>
+  <si>
+    <t>Informacje które zostały wyświetlone: The Email field is required.
+The Password field is required.</t>
+  </si>
+  <si>
+    <t>#1.1.2</t>
+  </si>
+  <si>
+    <t>Logowanie</t>
+  </si>
+  <si>
+    <t>Użytkownik loguję się do strony "Make a transfer"</t>
+  </si>
+  <si>
+    <t>1.Sprawdzić czy strona jest przygotowana do testów            2.Sprawdzić czy istnieje formularz do rejestrowania</t>
+  </si>
+  <si>
+    <t>1.Sprawdzić czy strona jest przygotowana do testów            2.Sprawdzić czy istnieje formularz do logowania</t>
+  </si>
+  <si>
+    <t>#1.1.3</t>
+  </si>
+  <si>
+    <t>#1.1.2A</t>
+  </si>
+  <si>
+    <t>#1.1.1S</t>
+  </si>
+  <si>
+    <t>#1.1.1T</t>
+  </si>
+  <si>
+    <t>Brak zweryfikowania konta</t>
+  </si>
+  <si>
+    <t>Użytkownik musi zweryfikować konto aby mógł kozystać z konta</t>
+  </si>
+  <si>
+    <t>Omijamy informację o zweryfikowaniu konta udając się do zakładki Login a następnie prubujemy się zalogować</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani że konto nieistnieje a uzytkownik niezaloguje się</t>
+  </si>
+  <si>
+    <t>Uzytkownik nie może się zalogować do konta</t>
+  </si>
+  <si>
+    <t>Sprawdzić czy istnieje zakładka do logowania</t>
+  </si>
+  <si>
+    <t>Wejście do zakładki Login poprzez stronę główną</t>
+  </si>
+  <si>
+    <t>Wprowadzenie  poprawych danych wejsciowych do pól tekstowych (Email: test_user@gmail.com,  Password: Test1234!@#)</t>
+  </si>
+  <si>
+    <t>Zatwierdzamy logowanie poprzez klikniecie przycisku Login in</t>
+  </si>
+  <si>
+    <t>Zostaniemy przniesieni na stronę główną a w wierszu zakładek pojawią się dodatkowe podstrony tylko dla zalogowanych</t>
+  </si>
+  <si>
+    <t>Zostaliśmy zalogowani i przeniesieni na stronę głowną a użytkownik dostał nowe zakładki</t>
+  </si>
+  <si>
+    <t>Nowe zakładaki które zostały ujawione po zalogowaniu się: Hello test_user@gmail.com! I Logout. W pierwszej zakładce "!" ponienien być po Hello a nie po emailu.</t>
+  </si>
+  <si>
+    <t>Zostaniemy przekierowni do formularza logowania</t>
+  </si>
+  <si>
+    <t>Logowanie nie powiedzie się a uzytkownk dostanie informację że pola tekstowe są wymagane</t>
+  </si>
+  <si>
+    <t>Logowanie nie powiodło się a uzytkownuik dostał informację że pola są wymagane</t>
+  </si>
+  <si>
+    <t>Wpisanie błędnych danych</t>
+  </si>
+  <si>
+    <t>Uzytkownik podaje złe dane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po wejściu w formularz logowania klikamy Login in zostawiając puste pola </t>
+  </si>
+  <si>
+    <t>Po wejściu w formularz logowania uzupełniamy dane losowym emailem i hasłem</t>
+  </si>
+  <si>
+    <t>Logowanie nie powiedzie się a uzytkownk dostanie informację że wprowadzone dane są niepoprawne</t>
+  </si>
+  <si>
+    <t>Logowanie nie powiodło się a uzytkownuik dostał informację że dane są nieprawidłowe</t>
+  </si>
+  <si>
+    <t>Informacje które zostały wyświetlone: Invalid login attempt.</t>
+  </si>
+  <si>
+    <t>Przelew</t>
+  </si>
+  <si>
+    <t>Użytkownik wykonuje przelew</t>
+  </si>
+  <si>
+    <t>1.Sprawdzić czy strona jest przygotowana do testów            2.Sprawdzić czy istnieje zakładka do robienia przelewów</t>
+  </si>
+  <si>
+    <t>#1.1.3A</t>
+  </si>
+  <si>
+    <t>#1.1.2C</t>
+  </si>
+  <si>
+    <t>#1.1.2B</t>
+  </si>
+  <si>
+    <t>Sprawdzić czy istnieje zakładka do robienia przelewów</t>
+  </si>
+  <si>
+    <t>Wejście do zakładki Make a transfer poprzez stronę główną</t>
+  </si>
+  <si>
+    <t>Wprowadzenie  poprawych danych wejsciowych (Title: Na jedzenie, Sender Account Number: 74273916273829163728648392, Recipient Account Number: 95435684359675654326759087, Amount: 50</t>
+  </si>
+  <si>
+    <t>Zatwierdzenie przelewu klikając Make a transfer</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje o przelewie i że został wysłany</t>
+  </si>
+  <si>
+    <t>Dostaliśmy informację o dokonanym przelewie</t>
+  </si>
+  <si>
+    <t>Informacje które zostały wyświetlone: Przelew o tytule  Na jedzenie kwota 50 do odbiorcy 95435684359675654326759087 został wysłany</t>
+  </si>
+  <si>
+    <t>Dane zostały wprowadzone</t>
+  </si>
+  <si>
+    <t>Brak tytułu</t>
+  </si>
+  <si>
+    <t>Pomijamy tytuł zostawiając puste pole, reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje że przelew musi zawierać tytuł a przelew nie został wysłany</t>
+  </si>
+  <si>
+    <t>Dostaliśmy informację że przelew został wysłany</t>
+  </si>
+  <si>
+    <t>Uzytkownik musi wprowadzić poprawne dane wejściowe</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje że przelew musi zawierać numer konta z którego są wysyłane pieniądze a przelew nie został wysłany</t>
+  </si>
+  <si>
+    <t>#1.1.3B</t>
+  </si>
+  <si>
+    <t>#1.1.3C</t>
+  </si>
+  <si>
+    <t>#1.1.3D</t>
+  </si>
+  <si>
+    <t>Brak numeru konta osoby wysyłającej przelew</t>
+  </si>
+  <si>
+    <t>Brak numeru konta osoby dostającej przelew</t>
+  </si>
+  <si>
+    <t>Pomijamy numer konta do którego są wysyłane pieniądze zostawiając puste pole, reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Pomijamy numer konta z którego są wysyłane pieniądze zostawiając puste pole, reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje że przelew musi zawierać numer konta do którego są wysyłane pieniądze a przelew nie został wysłany</t>
+  </si>
+  <si>
+    <t>Brak kwoty przelewu</t>
+  </si>
+  <si>
+    <t>Pomijamy pole z kwotą zostawiając puste pole, reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje że przelew musi zawierać kwotę a przelew nie został wysłany</t>
+  </si>
+  <si>
+    <t>Dostaliśmy informację że przelew nie został wysłany</t>
+  </si>
+  <si>
+    <t>Zły numer konta</t>
+  </si>
+  <si>
+    <t>Wpisujemy zły numer konta wysyłającego o dostającego pieniądze(np.: 1234567890 i 000000000000000000000000000000001, reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje że numery kontą nie nieprawidłowe a przelew nie uda się</t>
+  </si>
+  <si>
+    <t>Numer konta powinien mieć dokładnie 26 cyfr</t>
+  </si>
+  <si>
+    <t>#1.1.3E</t>
+  </si>
+  <si>
+    <t>#1.1.3F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +583,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -438,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -450,9 +763,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -506,6 +816,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -948,8 +1264,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A627E-B622-49A0-AC71-5AC0E83CAA05}" name="Tabela3" displayName="Tabela3" ref="A12:J60" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A12:J60" xr:uid="{4420009A-F870-4BB2-9550-83A2DC9E1FD0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A627E-B622-49A0-AC71-5AC0E83CAA05}" name="Tabela3" displayName="Tabela3" ref="A12:J202" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A12:J202" xr:uid="{4420009A-F870-4BB2-9550-83A2DC9E1FD0}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4C469532-4FF0-4CA3-9E92-A234240A7757}" name="Id sc.test." dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{917FB9B1-A174-4303-877E-91F3AB15A058}" name="Id przy.test." dataDxfId="8"/>
@@ -1263,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB46C1-CAA7-4CE2-B47D-048B77B74AEC}">
-  <dimension ref="A2:J60"/>
+  <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1596,7 @@
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1300,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1311,1111 +1627,3536 @@
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="45" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="14"/>
+    </row>
+    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="14"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="14"/>
+    </row>
+    <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="14"/>
+    </row>
+    <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="14"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="14"/>
+    </row>
+    <row r="68" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="14"/>
+    </row>
+    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="14"/>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="14"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="14"/>
+    </row>
+    <row r="73" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="14"/>
+    </row>
+    <row r="76" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="14"/>
+    </row>
+    <row r="77" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="14"/>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="14"/>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="14"/>
+    </row>
+    <row r="80" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="14"/>
+    </row>
+    <row r="81" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="14"/>
+    </row>
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="14"/>
+    </row>
+    <row r="87" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="14"/>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D89" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H90" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="I90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="14"/>
+    </row>
+    <row r="91" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I92" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="F93" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="F94" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="14"/>
+    </row>
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F95" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="14"/>
+    </row>
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="14"/>
+    </row>
+    <row r="98" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="14"/>
+    </row>
+    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="14"/>
+    </row>
+    <row r="101" spans="1:10" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G101" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H101" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="I101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="F102" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="F103" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="14"/>
+    </row>
+    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="22" t="s">
+      <c r="F104" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="14"/>
+    </row>
+    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
+      <c r="F105" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="F106" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I106" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J106" s="14"/>
+    </row>
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="F107" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="14"/>
+    </row>
+    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="F108" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" s="14"/>
+    </row>
+    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+      <c r="F109" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="14"/>
+    </row>
+    <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="F110" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I110" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="J110" s="14"/>
+    </row>
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
+      <c r="F111" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="14"/>
+    </row>
+    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="F112" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="14"/>
+    </row>
+    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="18"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="F113" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="114" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="22" t="s">
+      <c r="F114" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J114" s="14"/>
+    </row>
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="F115" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="14"/>
+    </row>
+    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+      <c r="F116" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" s="14"/>
+    </row>
+    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="F117" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" s="14"/>
+    </row>
+    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="22" t="s">
+      <c r="F118" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I118" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="14"/>
+    </row>
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
+      <c r="F119" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="14"/>
+    </row>
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="F120" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="14"/>
+    </row>
+    <row r="121" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="F121" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="14"/>
+    </row>
+    <row r="122" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
+      <c r="F122" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I122" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J122" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="14"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="14"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="14"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="14"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="14"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="14"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="14"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="14"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="14"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="14"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="14"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="14"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="14"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="14"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="14"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="14"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="14"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="14"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="14"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="14"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="14"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="14"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="14"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="14"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="14"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="14"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="14"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="14"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="14"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="14"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="14"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="14"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="14"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="14"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="13"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="14"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="14"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="14"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="14"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="14"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="14"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="14"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="13"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="14"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="14"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="14"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="14"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="14"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="14"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="14"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="14"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="14"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="14"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="14"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="14"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="14"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="13"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="14"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="13"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="14"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="13"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="14"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="14"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="14"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="14"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="14"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="14"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="14"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="14"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="14"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="14"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="14"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="14"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="14"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="14"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="14"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="14"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="14"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="14"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="14"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="14"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="13"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="14"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="14"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="14"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="18"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="2">

--- a/docs/test scenarios/make_transfer.xlsx
+++ b/docs/test scenarios/make_transfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\MakeATransfer\docs\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AA3E60-B0F6-41CA-B637-CF956C7850DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72909D26-BE52-4E66-8EEA-D392D6AC4423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="206">
   <si>
     <t>Id</t>
   </si>
@@ -543,9 +543,6 @@
     <t>Zły numer konta</t>
   </si>
   <si>
-    <t>Wpisujemy zły numer konta wysyłającego o dostającego pieniądze(np.: 1234567890 i 000000000000000000000000000000001, reszta pól uzupełniamy poprawnymi danymi</t>
-  </si>
-  <si>
     <t>Dostaniemy informacje że numery kontą nie nieprawidłowe a przelew nie uda się</t>
   </si>
   <si>
@@ -556,6 +553,108 @@
   </si>
   <si>
     <t>#1.1.3F</t>
+  </si>
+  <si>
+    <t>Zła kwota</t>
+  </si>
+  <si>
+    <t>Wpisujemy zły numer konta wysyłającego o dostającego pieniądze(np.: 1234567890 i 000000000000000000000000000000001), reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Wpisujemy złą kwotę(np.: 0), reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Kwota powinna być większa od 0</t>
+  </si>
+  <si>
+    <t>#1.1.3G</t>
+  </si>
+  <si>
+    <t>#1.1.3H</t>
+  </si>
+  <si>
+    <t>Wpisujemy złą kwotę(np.: -10), reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>#1.1.3I</t>
+  </si>
+  <si>
+    <t>Kwota powinna móc zawierać kowty po przecinku a zawiera tylko całkowite</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje że przelew nie może być wykonany za taką kwotę</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dostaniemy informacje że przelew z tak dużą kwotą muszą być autoryzowane hasłem </t>
+  </si>
+  <si>
+    <t>Brak autoryzacji poprzez hasło</t>
+  </si>
+  <si>
+    <t>Dostaniemy informacje że przelew nie został wysłany</t>
+  </si>
+  <si>
+    <t>Wpisujemy w pole kwoty(np.: 10000), reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Wpisujemy w pole kwoty(np.: 10,5), reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>Wpisujemy w pole kwoty (np.:kwota ), reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>#1.1.3J</t>
+  </si>
+  <si>
+    <t>#1.1.3K</t>
+  </si>
+  <si>
+    <t>Wpisujemy zły numer konta wysyłającego o dostającego pieniądze(np.: "odemnie" i "dla ciebie"), reszta pól uzupełniamy poprawnymi danymi</t>
+  </si>
+  <si>
+    <t>#1.1.4</t>
+  </si>
+  <si>
+    <t>Niezalogowany</t>
+  </si>
+  <si>
+    <t>Uzytkownik ma prawo się zalogowac i zarejestrować</t>
+  </si>
+  <si>
+    <t>1.Sprawdzić czy strona jest przygotowana do testów            2.Sprawdzić czy istnieje zakładka do logowania i rejestracji</t>
+  </si>
+  <si>
+    <t>#1.1.4A</t>
+  </si>
+  <si>
+    <t>Funkcje niezalogowanego</t>
+  </si>
+  <si>
+    <t>Niezalogowany ma prawo tylko zalogować się i zarejestrować się</t>
+  </si>
+  <si>
+    <t>Sprawdzić czy istnieje zakładka do logowanie i rejestracji</t>
+  </si>
+  <si>
+    <t>Wejscie na stronę "Make a transfer"</t>
+  </si>
+  <si>
+    <t>Strona działa</t>
+  </si>
+  <si>
+    <t>Zostalismy przekierowani do strony głównej</t>
+  </si>
+  <si>
+    <t>Sprawdzenie zakładek dla niezalogowanego</t>
+  </si>
+  <si>
+    <t>Niezalogowanie nie ma zakładek dal zalogowanych</t>
+  </si>
+  <si>
+    <t>Uzytkownik posiada zakładkę Info about this site, Make a transfer ,Register, Login</t>
+  </si>
+  <si>
+    <t>Uzytkownik nie może posiadać zakładki do robienia przelewów</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1349,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF461E1-0AEE-4AD6-BC03-9AE7EE0DF33F}" name="Tabela1" displayName="Tabela1" ref="A2:E5" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
-  <autoFilter ref="A2:E5" xr:uid="{BE7EBAB9-A2E7-4610-A776-05D41C30A963}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF461E1-0AEE-4AD6-BC03-9AE7EE0DF33F}" name="Tabela1" displayName="Tabela1" ref="A2:E6" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="A2:E6" xr:uid="{BE7EBAB9-A2E7-4610-A776-05D41C30A963}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{524A7053-3BF0-4395-A67A-2CA801213C69}" name="Id" totalsRowLabel="Suma" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{59DD98BB-5A25-43E6-A2D2-3E317D604549}" name="Nazwa" dataDxfId="18"/>
@@ -1581,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB46C1-CAA7-4CE2-B47D-048B77B74AEC}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,6 +1760,21 @@
       </c>
       <c r="E5" s="8"/>
     </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>6</v>
@@ -4018,7 +4132,7 @@
         <v>109</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>163</v>
@@ -4108,7 +4222,7 @@
         <v>109</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>167</v>
@@ -4158,7 +4272,7 @@
         <v>20</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>21</v>
@@ -4183,7 +4297,7 @@
         <v>144</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>152</v>
@@ -4192,332 +4306,624 @@
         <v>54</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
       <c r="J123" s="14"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
+      <c r="E124" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J124" s="14"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
+    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J125" s="14"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="14"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
+      <c r="E126" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I126" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J126" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
       <c r="J127" s="14"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
+      <c r="E128" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J128" s="14"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
+    <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="18"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J129" s="14"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="14"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
+      <c r="E130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I130" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J130" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
       <c r="J131" s="14"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
+      <c r="E132" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J132" s="14"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
+    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J133" s="14"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="14"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
+      <c r="E134" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I134" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
       <c r="J135" s="14"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
+      <c r="E136" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J136" s="14"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
+    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J137" s="14"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="14"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
+      <c r="E138" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I138" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J138" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
       <c r="J139" s="14"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
+      <c r="E140" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J140" s="14"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
+    <row r="141" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J141" s="14"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
+      <c r="E142" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I142" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="J142" s="14"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
+    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
       <c r="J143" s="14"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
+      <c r="E144" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I144" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="J144" s="14"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
+    <row r="145" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J145" s="14"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="13"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
+      <c r="E146" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I146" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="J146" s="14"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
+    <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
       <c r="J147" s="14"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="13"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
+      <c r="E148" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="I148" s="10"/>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="14"/>
+      <c r="E149" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I149" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J149" s="14" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>

--- a/docs/test scenarios/make_transfer.xlsx
+++ b/docs/test scenarios/make_transfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\MakeATransfer\docs\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72909D26-BE52-4E66-8EEA-D392D6AC4423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6505B573-54C6-499B-9810-04AC63182749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
   </bookViews>
@@ -588,9 +588,6 @@
     <t xml:space="preserve">Dostaniemy informacje że przelew z tak dużą kwotą muszą być autoryzowane hasłem </t>
   </si>
   <si>
-    <t>Brak autoryzacji poprzez hasło</t>
-  </si>
-  <si>
     <t>Dostaniemy informacje że przelew nie został wysłany</t>
   </si>
   <si>
@@ -655,6 +652,9 @@
   </si>
   <si>
     <t>Uzytkownik nie może posiadać zakładki do robienia przelewów</t>
+  </si>
+  <si>
+    <t>Przelewy powyżej 5000 maja mieć autoryzaje poprzez hasło uzytkownika</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB46C1-CAA7-4CE2-B47D-048B77B74AEC}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,16 +1762,16 @@
     </row>
     <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -4548,7 +4548,7 @@
         <v>20</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>21</v>
@@ -4590,7 +4590,7 @@
         <v>109</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>172</v>
@@ -4640,7 +4640,7 @@
         <v>20</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>21</v>
@@ -4674,7 +4674,7 @@
         <v>54</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4682,7 +4682,7 @@
         <v>109</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>172</v>
@@ -4732,7 +4732,7 @@
         <v>20</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G141" s="9" t="s">
         <v>21</v>
@@ -4757,7 +4757,7 @@
         <v>144</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H142" s="10" t="s">
         <v>166</v>
@@ -4772,7 +4772,7 @@
         <v>109</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>167</v>
@@ -4822,7 +4822,7 @@
         <v>20</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G145" s="9" t="s">
         <v>21</v>
@@ -4847,7 +4847,7 @@
         <v>144</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H146" s="10" t="s">
         <v>166</v>
@@ -4859,22 +4859,22 @@
     </row>
     <row r="147" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
@@ -4890,13 +4890,13 @@
         <v>18</v>
       </c>
       <c r="F148" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G148" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G148" s="10" t="s">
+      <c r="H148" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="I148" s="10"/>
       <c r="J148" s="14"/>
@@ -4910,19 +4910,19 @@
         <v>20</v>
       </c>
       <c r="F149" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G149" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G149" s="10" t="s">
+      <c r="H149" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="I149" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">

--- a/docs/test scenarios/make_transfer.xlsx
+++ b/docs/test scenarios/make_transfer.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\MakeATransfer\docs\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6505B573-54C6-499B-9810-04AC63182749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B8EF8-2CD9-4650-B5CA-40B894B38CC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenarusze testowe" sheetId="5" r:id="rId2"/>
+    <sheet name="#1.1.1" sheetId="2" r:id="rId3"/>
+    <sheet name="#1.1.2" sheetId="3" r:id="rId4"/>
+    <sheet name="#1.1.3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="242">
   <si>
     <t>Id</t>
   </si>
@@ -655,6 +659,114 @@
   </si>
   <si>
     <t>Przelewy powyżej 5000 maja mieć autoryzaje poprzez hasło uzytkownika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sprawdzić czy istnieje formularz do rejestrowania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Sprawdzić czy istnieje formularz do logowania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Sprawdzić czy istnieje zakładka do robienia przelewów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Sprawdzić czy istnieje zakładka do logowania i rejestracji</t>
+  </si>
+  <si>
+    <t>Zatwierdzenie formularza poprzez wciscniecie przycisku Register</t>
+  </si>
+  <si>
+    <t>Użytkownik wprowadza nieprawidłowy adres email</t>
+  </si>
+  <si>
+    <t>Wprowadzenie przykładowych poprawych danych wejsciowych do pól tekstowych (Email: test_user@gmail.com, Password: Test1234!@#)</t>
+  </si>
+  <si>
+    <t>rtgerger</t>
+  </si>
+  <si>
+    <t>getghrthr</t>
+  </si>
+  <si>
+    <t>Użytkownik zostanie poinformowany o złym adresie email</t>
+  </si>
+  <si>
+    <t>Przyjęte dane zostały wprowadzone a walidator nie wykrył błedu</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres ze znakiem specjalnym przed nazwą (np: _test_user4@gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>W polu tekstowym email wpisać pzykładowy adres ze znakiem specjalnym przed nazwą (np: *test_user4@gmail.com), resztę pól wypełnić poprwnymi danymi</t>
+  </si>
+  <si>
+    <t>rtbhtybn</t>
+  </si>
+  <si>
+    <t>ntyn</t>
+  </si>
+  <si>
+    <t>ewdwed</t>
+  </si>
+  <si>
+    <t>Użytkownik zostanie poinformowany o niepoprawnosci hasła</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza nieprawidłowe hasło niestosując się do zasady silnych haseł</t>
+  </si>
+  <si>
+    <t>Wpisanie innego hasła w polu potwierdzające hasło</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza nieprawidłowe hasło w pole "Confirm password"</t>
+  </si>
+  <si>
+    <t>Użytkownik zostanie poinformowany o niepoprawnosci potwierdzającego hasła</t>
+  </si>
+  <si>
+    <t>Formularz nie wyświetli błędów walidacji</t>
+  </si>
+  <si>
+    <t>Na formularzu nie zostały wyświetlone błędy walidacji pól</t>
+  </si>
+  <si>
+    <t>wdqwedfwe</t>
+  </si>
+  <si>
+    <t>Uzytkownik nie wpisuje tytułu</t>
+  </si>
+  <si>
+    <t>Uzytkownik nie uzupełnia pola z numerem konta odbiorcy</t>
+  </si>
+  <si>
+    <t>Uzytkownik nie uzupełnia pola z numerem konta adresatu</t>
+  </si>
+  <si>
+    <t>Uzytkownik nie uzupełnia pola kwoty w przelewie</t>
+  </si>
+  <si>
+    <t>Uzytkownik uzupełnia numery kont błednymi danymi</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza wartość przelewu wynoszącą 0</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza wartość ujemną w pole kwoty</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza wartość po przecinku w pole kwoty</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza w pole kowty wartość wymagającą autoryzacji</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza wartść nie liczbową w pole kwoty</t>
+  </si>
+  <si>
+    <t>Uzytkownik wprowadza wartść nie liczbową w pole numery kont</t>
+  </si>
+  <si>
+    <t>Uzytkownik zostawia puste pola</t>
   </si>
 </sst>
 </file>
@@ -726,7 +838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -845,12 +957,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -921,12 +1079,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Zły" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="35">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1349,35 +1685,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF461E1-0AEE-4AD6-BC03-9AE7EE0DF33F}" name="Tabela1" displayName="Tabela1" ref="A2:E6" headerRowDxfId="24" dataDxfId="22" totalsRowDxfId="20" headerRowBorderDxfId="23" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF461E1-0AEE-4AD6-BC03-9AE7EE0DF33F}" name="Tabela1" displayName="Tabela1" ref="A2:E6" headerRowDxfId="34" dataDxfId="32" totalsRowDxfId="30" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="A2:E6" xr:uid="{BE7EBAB9-A2E7-4610-A776-05D41C30A963}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{524A7053-3BF0-4395-A67A-2CA801213C69}" name="Id" totalsRowLabel="Suma" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{59DD98BB-5A25-43E6-A2D2-3E317D604549}" name="Nazwa" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{92EFCEEF-CFB4-4923-9F80-CEDB6E01CC48}" name="Opis" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{A974A6B7-4033-4200-A95B-15B78F851B6E}" name="Czynności przygotowawcze" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{0B2B3611-C587-4FA2-9FA4-39C0F0025D0A}" name="Czynności końcowe" totalsRowFunction="count" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{524A7053-3BF0-4395-A67A-2CA801213C69}" name="Id" totalsRowLabel="Suma" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{59DD98BB-5A25-43E6-A2D2-3E317D604549}" name="Nazwa" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{92EFCEEF-CFB4-4923-9F80-CEDB6E01CC48}" name="Opis" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{A974A6B7-4033-4200-A95B-15B78F851B6E}" name="Czynności przygotowawcze" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{0B2B3611-C587-4FA2-9FA4-39C0F0025D0A}" name="Czynności końcowe" totalsRowFunction="count" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A627E-B622-49A0-AC71-5AC0E83CAA05}" name="Tabela3" displayName="Tabela3" ref="A12:J202" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{055A627E-B622-49A0-AC71-5AC0E83CAA05}" name="Tabela3" displayName="Tabela3" ref="A12:J202" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A12:J202" xr:uid="{4420009A-F870-4BB2-9550-83A2DC9E1FD0}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4C469532-4FF0-4CA3-9E92-A234240A7757}" name="Id sc.test." dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{917FB9B1-A174-4303-877E-91F3AB15A058}" name="Id przy.test." dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D45ACC9C-F07E-4FD5-A09E-887305E79B0E}" name="Przypadek testowy" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EFC9365F-6AFF-4281-B5B3-8B8DFC4C6947}" name="Opis przypadku" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{752C3B3E-7D86-420F-83F1-DA57E9091E5F}" name="Krok testu" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{711E2E88-A960-4F84-92E2-FD34DE791024}" name="Opis kroku" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5C28BE22-DCD5-46F3-87BD-61A819900B97}" name="Oczekiwany rezultat" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{FFEDE241-C061-4FD8-96AE-A8EDE5444FE3}" name="Aktualny rezultat" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{B0E1B49D-7B88-44B2-B03A-FA345032807C}" name="Status" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{0053BE8F-F10F-4117-AB75-65D834AA04EB}" name="Komentarz" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4C469532-4FF0-4CA3-9E92-A234240A7757}" name="Id sc.test." dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{917FB9B1-A174-4303-877E-91F3AB15A058}" name="Id przy.test." dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D45ACC9C-F07E-4FD5-A09E-887305E79B0E}" name="Przypadek testowy" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{EFC9365F-6AFF-4281-B5B3-8B8DFC4C6947}" name="Opis przypadku" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{752C3B3E-7D86-420F-83F1-DA57E9091E5F}" name="Krok testu" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{711E2E88-A960-4F84-92E2-FD34DE791024}" name="Opis kroku" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{5C28BE22-DCD5-46F3-87BD-61A819900B97}" name="Oczekiwany rezultat" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{FFEDE241-C061-4FD8-96AE-A8EDE5444FE3}" name="Aktualny rezultat" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{B0E1B49D-7B88-44B2-B03A-FA345032807C}" name="Status" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{0053BE8F-F10F-4117-AB75-65D834AA04EB}" name="Komentarz" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5D1618B-ED65-4A78-A4E0-6DA9E7B8D3BA}" name="Tabela12" displayName="Tabela12" ref="A2:E6" headerRowDxfId="0" dataDxfId="1" totalsRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A2:E6" xr:uid="{4BF6D581-3C2B-478B-A1CD-CB4502DECA9F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{14DB8F94-CBC7-4BE4-AD82-0F77591D6987}" name="Id" totalsRowLabel="Suma" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FC0AD1AB-A0BC-466D-AB17-5CFEE746AC60}" name="Nazwa" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A0AF6754-45F2-41C6-BECE-A1593E1DB608}" name="Opis" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7B6A78DC-4F44-4E45-8546-498432B4F086}" name="Czynności przygotowawcze" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{90ECF441-1B9B-4807-A8BF-04B2B05BECAE}" name="Czynności końcowe" totalsRowFunction="count" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1680,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB46C1-CAA7-4CE2-B47D-048B77B74AEC}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5570,4 +5920,3351 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA7BC5B-FA24-4AF8-8224-CB0E0ECE4970}">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC76F5-5C47-49B7-A4C9-929857E9A456}">
+  <dimension ref="A2:K78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="28"/>
+    </row>
+    <row r="39" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="28"/>
+    </row>
+    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="27"/>
+    </row>
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="28"/>
+    </row>
+    <row r="55" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" s="28"/>
+    </row>
+    <row r="59" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" s="28"/>
+    </row>
+    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="27"/>
+    </row>
+    <row r="66" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="28"/>
+    </row>
+    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="27"/>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="27"/>
+    </row>
+    <row r="70" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="28"/>
+    </row>
+    <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="28"/>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="27"/>
+    </row>
+    <row r="74" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="27"/>
+    </row>
+    <row r="76" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="28"/>
+    </row>
+    <row r="77" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="27"/>
+    </row>
+    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689453ED-E3AE-4DCE-827C-6959EBD27190}">
+  <dimension ref="A2:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32765F3B-1598-4D9A-A6C9-4AB6325E51A4}">
+  <dimension ref="A2:K50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="27"/>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="27"/>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="28"/>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="28"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="27"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="28"/>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="28"/>
+    </row>
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="28"/>
+    </row>
+    <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="27"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/test scenarios/make_transfer.xlsx
+++ b/docs/test scenarios/make_transfer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repozytoria\MakeATransfer\docs\test scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B8EF8-2CD9-4650-B5CA-40B894B38CC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970CA0D7-4145-40C1-9533-A3A514D22E49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3C9A65BE-5094-4CCB-8027-BD4AE854277F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="#1.1.1" sheetId="2" r:id="rId3"/>
     <sheet name="#1.1.2" sheetId="3" r:id="rId4"/>
     <sheet name="#1.1.3" sheetId="4" r:id="rId5"/>
+    <sheet name="#1.1.4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="254">
   <si>
     <t>Id</t>
   </si>
@@ -682,15 +683,6 @@
     <t>Wprowadzenie przykładowych poprawych danych wejsciowych do pól tekstowych (Email: test_user@gmail.com, Password: Test1234!@#)</t>
   </si>
   <si>
-    <t>rtgerger</t>
-  </si>
-  <si>
-    <t>getghrthr</t>
-  </si>
-  <si>
-    <t>Użytkownik zostanie poinformowany o złym adresie email</t>
-  </si>
-  <si>
     <t>Przyjęte dane zostały wprowadzone a walidator nie wykrył błedu</t>
   </si>
   <si>
@@ -700,18 +692,6 @@
     <t>W polu tekstowym email wpisać pzykładowy adres ze znakiem specjalnym przed nazwą (np: *test_user4@gmail.com), resztę pól wypełnić poprwnymi danymi</t>
   </si>
   <si>
-    <t>rtbhtybn</t>
-  </si>
-  <si>
-    <t>ntyn</t>
-  </si>
-  <si>
-    <t>ewdwed</t>
-  </si>
-  <si>
-    <t>Użytkownik zostanie poinformowany o niepoprawnosci hasła</t>
-  </si>
-  <si>
     <t>Uzytkownik wprowadza nieprawidłowe hasło niestosując się do zasady silnych haseł</t>
   </si>
   <si>
@@ -721,18 +701,12 @@
     <t>Uzytkownik wprowadza nieprawidłowe hasło w pole "Confirm password"</t>
   </si>
   <si>
-    <t>Użytkownik zostanie poinformowany o niepoprawnosci potwierdzającego hasła</t>
-  </si>
-  <si>
     <t>Formularz nie wyświetli błędów walidacji</t>
   </si>
   <si>
     <t>Na formularzu nie zostały wyświetlone błędy walidacji pól</t>
   </si>
   <si>
-    <t>wdqwedfwe</t>
-  </si>
-  <si>
     <t>Uzytkownik nie wpisuje tytułu</t>
   </si>
   <si>
@@ -767,6 +741,69 @@
   </si>
   <si>
     <t>Uzytkownik zostawia puste pola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzytjkownik zamias zostaniemy </t>
+  </si>
+  <si>
+    <t>Tu powinno przyjac</t>
+  </si>
+  <si>
+    <t>Użytkownik dostał informacje o dokonanym przelewie ale został przekierowany na stronę która nieumożliwia mu korzystanie z serwiusu</t>
+  </si>
+  <si>
+    <t>Użytkownik dostał informacje o dokonanym przelewie i został przekierowany na stronę która nieumożliwia mu korzystanie z serwiusu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Użytkownik dostał informacje o dokonanym przelewie i został przekierowany na stronę która nieumożliwia mu korzystanie z serwiusu oraz, numer konta powinien mieć dokładnie 26 cyfr </t>
+  </si>
+  <si>
+    <t>Uzytkownik próbuje zalogowac się uzytkowikiem który nieistnieje</t>
+  </si>
+  <si>
+    <t>Użytkowik loguje się uzytkownikiem który istieje w systemi oraz który został zweryfikowany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzytkownik uzupełnia pola zgodnie z założeniami </t>
+  </si>
+  <si>
+    <t>Niezalogowany użytkownik</t>
+  </si>
+  <si>
+    <t>Sprawdzić czy istnieje strona Make a transfer</t>
+  </si>
+  <si>
+    <t>Sprawdzenie zakładek dla niezalogowanego uzytkownika</t>
+  </si>
+  <si>
+    <t>Uzytkownik ma dostępne tylko do zakładek Register, Login Info about this site</t>
+  </si>
+  <si>
+    <t>Uzytkownik widzi zakładke do robienia przelewów ale wchodząc w nią zostaje przekierowany do podstrony Login</t>
+  </si>
+  <si>
+    <t>Użytkownik dostał informacje o dokonanym przelewie i został przekierowany na stronę która nieumożliwia mu korzystanie z serwiusu a kwota powinna być większa od 0</t>
+  </si>
+  <si>
+    <t>Użytkownik dostał informacje o dokonanym przelewie i został przekierowany na stronę która nieumożliwia mu korzystanie z serwiusu oraz kwoty powinny móc zawierać kowty po przecinku a zawiera tylko całkowite</t>
+  </si>
+  <si>
+    <t>Użytkownik dostał informacje o dokonanym przelewie i został przekierowany na stronę która nieumożliwia mu korzystanie z serwiusu oraz przelewy powyżej 5000 maja mieć autoryzaje poprzez hasło uzytkownika</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani o złym adresie email</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani o niepoprawnosci hasła</t>
+  </si>
+  <si>
+    <t>Zostaniemy poinformowani o niepoprawnosci potwierdzającego hasła</t>
+  </si>
+  <si>
+    <t>Zostaniemy pzrekierowani na podstrone Info about this site</t>
+  </si>
+  <si>
+    <t>Zostaliśmy przekierowani do podstrony Info about this site</t>
   </si>
 </sst>
 </file>
@@ -1136,35 +1173,6 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
         <right/>
         <top style="thin">
           <color auto="1"/>
@@ -1241,10 +1249,16 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1261,6 +1275,29 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1718,14 +1755,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5D1618B-ED65-4A78-A4E0-6DA9E7B8D3BA}" name="Tabela12" displayName="Tabela12" ref="A2:E6" headerRowDxfId="0" dataDxfId="1" totalsRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F5D1618B-ED65-4A78-A4E0-6DA9E7B8D3BA}" name="Tabela12" displayName="Tabela12" ref="A2:E6" headerRowDxfId="9" dataDxfId="7" totalsRowDxfId="5" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A2:E6" xr:uid="{4BF6D581-3C2B-478B-A1CD-CB4502DECA9F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{14DB8F94-CBC7-4BE4-AD82-0F77591D6987}" name="Id" totalsRowLabel="Suma" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FC0AD1AB-A0BC-466D-AB17-5CFEE746AC60}" name="Nazwa" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{A0AF6754-45F2-41C6-BECE-A1593E1DB608}" name="Opis" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7B6A78DC-4F44-4E45-8546-498432B4F086}" name="Czynności przygotowawcze" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{90ECF441-1B9B-4807-A8BF-04B2B05BECAE}" name="Czynności końcowe" totalsRowFunction="count" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{14DB8F94-CBC7-4BE4-AD82-0F77591D6987}" name="Id" totalsRowLabel="Suma" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FC0AD1AB-A0BC-466D-AB17-5CFEE746AC60}" name="Nazwa" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A0AF6754-45F2-41C6-BECE-A1593E1DB608}" name="Opis" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7B6A78DC-4F44-4E45-8546-498432B4F086}" name="Czynności przygotowawcze" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{90ECF441-1B9B-4807-A8BF-04B2B05BECAE}" name="Czynności końcowe" totalsRowFunction="count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2030,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEB46C1-CAA7-4CE2-B47D-048B77B74AEC}">
   <dimension ref="A2:J202"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="A2:E6"/>
+    <sheetView topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,8 +4629,12 @@
       <c r="J119" s="14"/>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="10"/>
+      <c r="A120" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10" t="s">
@@ -4614,8 +4655,12 @@
       <c r="J120" s="14"/>
     </row>
     <row r="121" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19"/>
+      <c r="A121" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
@@ -4636,8 +4681,12 @@
       <c r="J121" s="14"/>
     </row>
     <row r="122" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="10"/>
+      <c r="A122" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10" t="s">
@@ -4684,8 +4733,12 @@
       <c r="J123" s="14"/>
     </row>
     <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10" t="s">
@@ -4706,8 +4759,12 @@
       <c r="J124" s="14"/>
     </row>
     <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19"/>
+      <c r="A125" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
@@ -4728,8 +4785,12 @@
       <c r="J125" s="14"/>
     </row>
     <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="10"/>
+      <c r="A126" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10" t="s">
@@ -5926,9 +5987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA7BC5B-FA24-4AF8-8224-CB0E0ECE4970}">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6027,8 +6086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC76F5-5C47-49B7-A4C9-929857E9A456}">
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,7 +6136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
@@ -6167,7 +6226,7 @@
       </c>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -6189,7 +6248,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
@@ -6247,7 +6306,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>47</v>
@@ -6279,7 +6338,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
@@ -6337,7 +6396,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>47</v>
@@ -6369,7 +6428,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -6415,7 +6474,7 @@
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -6427,17 +6486,17 @@
         <v>51</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J18" s="28"/>
-      <c r="K18" s="38" t="s">
-        <v>213</v>
+      <c r="K18" s="39" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -6449,7 +6508,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>45</v>
@@ -6464,7 +6523,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>5</v>
       </c>
@@ -6522,7 +6581,7 @@
         <v>55</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>47</v>
@@ -6554,7 +6613,7 @@
       </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
@@ -6612,7 +6671,7 @@
         <v>58</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H26" s="28" t="s">
         <v>47</v>
@@ -6644,7 +6703,7 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>5</v>
       </c>
@@ -6699,13 +6758,13 @@
         <v>20</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>54</v>
@@ -6734,7 +6793,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>5</v>
       </c>
@@ -6789,13 +6848,13 @@
         <v>20</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>54</v>
@@ -6825,11 +6884,8 @@
       <c r="J35" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="K35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>5</v>
       </c>
@@ -6852,9 +6908,6 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
-      <c r="K36" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
@@ -6890,7 +6943,7 @@
         <v>66</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H38" s="28" t="s">
         <v>47</v>
@@ -6922,7 +6975,7 @@
       </c>
       <c r="J39" s="27"/>
     </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>5</v>
       </c>
@@ -6945,9 +6998,6 @@
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
-      <c r="K40" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
@@ -6983,15 +7033,18 @@
         <v>67</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>54</v>
       </c>
       <c r="J42" s="28"/>
+      <c r="K42" s="38" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
@@ -7017,7 +7070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>5</v>
       </c>
@@ -7075,7 +7128,7 @@
         <v>70</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="H46" s="28" t="s">
         <v>47</v>
@@ -7118,7 +7171,7 @@
         <v>74</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>17</v>
@@ -7164,8 +7217,8 @@
       <c r="F50" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="32" t="s">
-        <v>222</v>
+      <c r="G50" s="28" t="s">
+        <v>249</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>76</v>
@@ -7174,9 +7227,7 @@
         <v>19</v>
       </c>
       <c r="J50" s="32"/>
-      <c r="K50" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
@@ -7211,7 +7262,7 @@
         <v>74</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>17</v>
@@ -7258,10 +7309,10 @@
         <v>80</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I54" s="40" t="s">
         <v>54</v>
@@ -7303,7 +7354,7 @@
         <v>74</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>17</v>
@@ -7350,10 +7401,10 @@
         <v>85</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I58" s="40" t="s">
         <v>54</v>
@@ -7393,7 +7444,7 @@
         <v>74</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>17</v>
@@ -7440,10 +7491,10 @@
         <v>87</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I62" s="40" t="s">
         <v>54</v>
@@ -7483,7 +7534,7 @@
         <v>74</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>17</v>
@@ -7530,10 +7581,10 @@
         <v>88</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I66" s="40" t="s">
         <v>54</v>
@@ -7570,10 +7621,10 @@
         <v>97</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>17</v>
@@ -7620,7 +7671,7 @@
         <v>91</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="H70" s="32" t="s">
         <v>92</v>
@@ -7652,7 +7703,7 @@
       </c>
       <c r="J71" s="27"/>
     </row>
-    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>5</v>
       </c>
@@ -7722,7 +7773,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>5</v>
       </c>
@@ -7819,6 +7870,7 @@
       <c r="J78" s="28"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7829,7 +7881,7 @@
   <dimension ref="A2:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7878,7 +7930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>104</v>
       </c>
@@ -7889,7 +7941,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>17</v>
@@ -7936,10 +7988,10 @@
         <v>120</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>19</v>
@@ -7981,7 +8033,7 @@
         <v>98</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>17</v>
@@ -8040,7 +8092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>104</v>
       </c>
@@ -8051,7 +8103,7 @@
         <v>128</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>17</v>
@@ -8117,10 +8169,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32765F3B-1598-4D9A-A6C9-4AB6325E51A4}">
-  <dimension ref="A2:K50"/>
+  <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8137,7 +8189,7 @@
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
@@ -8169,7 +8221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>109</v>
       </c>
@@ -8180,7 +8232,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>17</v>
@@ -8193,7 +8245,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -8215,7 +8267,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="27"/>
@@ -8227,20 +8279,17 @@
         <v>143</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="33"/>
-      <c r="K5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -8257,14 +8306,14 @@
       <c r="H6" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>19</v>
+      <c r="I6" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>109</v>
       </c>
@@ -8275,7 +8324,7 @@
         <v>149</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>17</v>
@@ -8288,7 +8337,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -8310,7 +8359,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="27"/>
@@ -8322,17 +8371,17 @@
         <v>150</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -8352,9 +8401,11 @@
       <c r="I10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>109</v>
       </c>
@@ -8365,7 +8416,7 @@
         <v>158</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>17</v>
@@ -8378,7 +8429,7 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -8400,7 +8451,7 @@
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="27"/>
@@ -8412,17 +8463,17 @@
         <v>161</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -8442,9 +8493,11 @@
       <c r="I14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J14" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>109</v>
       </c>
@@ -8455,7 +8508,7 @@
         <v>159</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>17</v>
@@ -8468,7 +8521,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -8502,17 +8555,17 @@
         <v>160</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -8532,7 +8585,9 @@
       <c r="I18" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="28" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
@@ -8545,7 +8600,7 @@
         <v>163</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>17</v>
@@ -8592,10 +8647,10 @@
         <v>164</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I21" s="27" t="s">
         <v>19</v>
@@ -8635,7 +8690,7 @@
         <v>167</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>17</v>
@@ -8682,17 +8737,17 @@
         <v>173</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -8713,7 +8768,7 @@
         <v>54</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8727,7 +8782,7 @@
         <v>172</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>17</v>
@@ -8774,17 +8829,17 @@
         <v>174</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -8805,7 +8860,7 @@
         <v>54</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8819,7 +8874,7 @@
         <v>172</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>17</v>
@@ -8866,17 +8921,17 @@
         <v>178</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I33" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -8897,7 +8952,7 @@
         <v>54</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8911,7 +8966,7 @@
         <v>172</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>17</v>
@@ -8958,17 +9013,17 @@
         <v>185</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I37" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J37" s="27"/>
     </row>
-    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -8989,7 +9044,7 @@
         <v>54</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -9003,7 +9058,7 @@
         <v>172</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>17</v>
@@ -9050,17 +9105,17 @@
         <v>184</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I41" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J41" s="27"/>
     </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -9081,7 +9136,7 @@
         <v>54</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -9095,7 +9150,7 @@
         <v>172</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>17</v>
@@ -9142,10 +9197,10 @@
         <v>186</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I45" s="27" t="s">
         <v>19</v>
@@ -9185,7 +9240,7 @@
         <v>167</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E47" s="27" t="s">
         <v>17</v>
@@ -9232,10 +9287,10 @@
         <v>189</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I49" s="27" t="s">
         <v>19</v>
@@ -9259,10 +9314,138 @@
       <c r="H50" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="28" t="s">
         <v>19</v>
       </c>
       <c r="J50" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E79E95-4169-463F-A7C4-BFDE0C64F91B}">
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
